--- a/分割前後土地分割範例.xlsx
+++ b/分割前後土地分割範例.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\地政小程式\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC0672E-4512-480F-B489-B8E6B90617A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C03497A-4F85-4D76-B0E1-0382ECF822DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>面積</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,11 +69,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄉鎮市區</t>
+  </si>
+  <si>
+    <t>段</t>
+  </si>
+  <si>
+    <t>小段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,15 +132,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -425,10 +428,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -436,80 +439,98 @@
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
     <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.625" customWidth="1"/>
     <col min="14" max="14" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="2"/>
-      <c r="I1" s="4" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="P2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="Q2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="R2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:O34" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="K1:S1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
